--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cxcl17-Gpr35.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cxcl17-Gpr35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cxcl17</t>
   </si>
   <si>
     <t>Gpr35</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5217811964758809</v>
+        <v>0.644458</v>
       </c>
       <c r="H2">
-        <v>0.5217811964758809</v>
+        <v>1.933374</v>
       </c>
       <c r="I2">
-        <v>0.6302843615569076</v>
+        <v>0.4891974816643364</v>
       </c>
       <c r="J2">
-        <v>0.6302843615569076</v>
+        <v>0.4891974816643362</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>24.394191861708</v>
+        <v>0.5631240000000001</v>
       </c>
       <c r="N2">
-        <v>24.394191861708</v>
+        <v>1.689372</v>
       </c>
       <c r="O2">
-        <v>0.4270784526907037</v>
+        <v>0.008460536075842478</v>
       </c>
       <c r="P2">
-        <v>0.4270784526907037</v>
+        <v>0.008460536075842476</v>
       </c>
       <c r="Q2">
-        <v>12.7284306166642</v>
+        <v>0.362909766792</v>
       </c>
       <c r="R2">
-        <v>12.7284306166642</v>
+        <v>3.266187901128</v>
       </c>
       <c r="S2">
-        <v>0.2691808698888721</v>
+        <v>0.004138872941832406</v>
       </c>
       <c r="T2">
-        <v>0.2691808698888721</v>
+        <v>0.004138872941832405</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,185 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5217811964758809</v>
+        <v>0.644458</v>
       </c>
       <c r="H3">
-        <v>0.5217811964758809</v>
+        <v>1.933374</v>
       </c>
       <c r="I3">
-        <v>0.6302843615569076</v>
+        <v>0.4891974816643364</v>
       </c>
       <c r="J3">
-        <v>0.6302843615569076</v>
+        <v>0.4891974816643362</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>32.7245686564552</v>
+        <v>24.75083866666667</v>
       </c>
       <c r="N3">
-        <v>32.7245686564552</v>
+        <v>74.252516</v>
       </c>
       <c r="O3">
-        <v>0.5729215473092962</v>
+        <v>0.3718636809063194</v>
       </c>
       <c r="P3">
-        <v>0.5729215473092962</v>
+        <v>0.3718636809063194</v>
       </c>
       <c r="Q3">
-        <v>17.07506458772231</v>
+        <v>15.95087598544267</v>
       </c>
       <c r="R3">
-        <v>17.07506458772231</v>
+        <v>143.557883868984</v>
       </c>
       <c r="S3">
-        <v>0.3611034916680354</v>
+        <v>0.1819147762218018</v>
       </c>
       <c r="T3">
-        <v>0.3611034916680354</v>
+        <v>0.1819147762218018</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.306069260081528</v>
+        <v>0.644458</v>
       </c>
       <c r="H4">
-        <v>0.306069260081528</v>
+        <v>1.933374</v>
       </c>
       <c r="I4">
-        <v>0.3697156384430925</v>
+        <v>0.4891974816643364</v>
       </c>
       <c r="J4">
-        <v>0.3697156384430925</v>
+        <v>0.4891974816643362</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.394191861708</v>
+        <v>41.21176133333334</v>
       </c>
       <c r="N4">
-        <v>24.394191861708</v>
+        <v>123.635284</v>
       </c>
       <c r="O4">
-        <v>0.4270784526907037</v>
+        <v>0.6191772922299115</v>
       </c>
       <c r="P4">
-        <v>0.4270784526907037</v>
+        <v>0.6191772922299115</v>
       </c>
       <c r="Q4">
-        <v>7.466312253399799</v>
+        <v>26.55924928535733</v>
       </c>
       <c r="R4">
-        <v>7.466312253399799</v>
+        <v>239.033243568216</v>
       </c>
       <c r="S4">
-        <v>0.1578975828018316</v>
+        <v>0.3028999720626155</v>
       </c>
       <c r="T4">
-        <v>0.1578975828018316</v>
+        <v>0.3028999720626155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.644458</v>
+      </c>
+      <c r="H5">
+        <v>1.933374</v>
+      </c>
+      <c r="I5">
+        <v>0.4891974816643364</v>
+      </c>
+      <c r="J5">
+        <v>0.4891974816643362</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.033179</v>
+      </c>
+      <c r="N5">
+        <v>0.099537</v>
+      </c>
+      <c r="O5">
+        <v>0.0004984907879265979</v>
+      </c>
+      <c r="P5">
+        <v>0.0004984907879265979</v>
+      </c>
+      <c r="Q5">
+        <v>0.021382471982</v>
+      </c>
+      <c r="R5">
+        <v>0.192442247838</v>
+      </c>
+      <c r="S5">
+        <v>0.0002438604380865624</v>
+      </c>
+      <c r="T5">
+        <v>0.0002438604380865624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.4245816666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.273745</v>
+      </c>
+      <c r="I6">
+        <v>0.3222929688112802</v>
+      </c>
+      <c r="J6">
+        <v>0.3222929688112802</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.5631240000000001</v>
+      </c>
+      <c r="N6">
+        <v>1.689372</v>
+      </c>
+      <c r="O6">
+        <v>0.008460536075842478</v>
+      </c>
+      <c r="P6">
+        <v>0.008460536075842476</v>
+      </c>
+      <c r="Q6">
+        <v>0.23909212646</v>
+      </c>
+      <c r="R6">
+        <v>2.15182913814</v>
+      </c>
+      <c r="S6">
+        <v>0.002726771289618211</v>
+      </c>
+      <c r="T6">
+        <v>0.00272677128961821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.4245816666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.273745</v>
+      </c>
+      <c r="I7">
+        <v>0.3222929688112802</v>
+      </c>
+      <c r="J7">
+        <v>0.3222929688112802</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>24.75083866666667</v>
+      </c>
+      <c r="N7">
+        <v>74.252516</v>
+      </c>
+      <c r="O7">
+        <v>0.3718636809063194</v>
+      </c>
+      <c r="P7">
+        <v>0.3718636809063194</v>
+      </c>
+      <c r="Q7">
+        <v>10.50875233249111</v>
+      </c>
+      <c r="R7">
+        <v>94.57877099241999</v>
+      </c>
+      <c r="S7">
+        <v>0.1198490497123883</v>
+      </c>
+      <c r="T7">
+        <v>0.1198490497123882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.306069260081528</v>
-      </c>
-      <c r="H5">
-        <v>0.306069260081528</v>
-      </c>
-      <c r="I5">
-        <v>0.3697156384430925</v>
-      </c>
-      <c r="J5">
-        <v>0.3697156384430925</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>32.7245686564552</v>
-      </c>
-      <c r="N5">
-        <v>32.7245686564552</v>
-      </c>
-      <c r="O5">
-        <v>0.5729215473092962</v>
-      </c>
-      <c r="P5">
-        <v>0.5729215473092962</v>
-      </c>
-      <c r="Q5">
-        <v>10.01598451516841</v>
-      </c>
-      <c r="R5">
-        <v>10.01598451516841</v>
-      </c>
-      <c r="S5">
-        <v>0.2118180556412609</v>
-      </c>
-      <c r="T5">
-        <v>0.2118180556412609</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.4245816666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.273745</v>
+      </c>
+      <c r="I8">
+        <v>0.3222929688112802</v>
+      </c>
+      <c r="J8">
+        <v>0.3222929688112802</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>41.21176133333334</v>
+      </c>
+      <c r="N8">
+        <v>123.635284</v>
+      </c>
+      <c r="O8">
+        <v>0.6191772922299115</v>
+      </c>
+      <c r="P8">
+        <v>0.6191772922299115</v>
+      </c>
+      <c r="Q8">
+        <v>17.49775831317556</v>
+      </c>
+      <c r="R8">
+        <v>157.47982481858</v>
+      </c>
+      <c r="S8">
+        <v>0.1995564877333078</v>
+      </c>
+      <c r="T8">
+        <v>0.1995564877333078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4245816666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.273745</v>
+      </c>
+      <c r="I9">
+        <v>0.3222929688112802</v>
+      </c>
+      <c r="J9">
+        <v>0.3222929688112802</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.033179</v>
+      </c>
+      <c r="N9">
+        <v>0.099537</v>
+      </c>
+      <c r="O9">
+        <v>0.0004984907879265979</v>
+      </c>
+      <c r="P9">
+        <v>0.0004984907879265979</v>
+      </c>
+      <c r="Q9">
+        <v>0.01408719511833333</v>
+      </c>
+      <c r="R9">
+        <v>0.126784756065</v>
+      </c>
+      <c r="S9">
+        <v>0.0001606600759659375</v>
+      </c>
+      <c r="T9">
+        <v>0.0001606600759659375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1081373333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.324412</v>
+      </c>
+      <c r="I10">
+        <v>0.08208527342443352</v>
+      </c>
+      <c r="J10">
+        <v>0.08208527342443349</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.5631240000000001</v>
+      </c>
+      <c r="N10">
+        <v>1.689372</v>
+      </c>
+      <c r="O10">
+        <v>0.008460536075842478</v>
+      </c>
+      <c r="P10">
+        <v>0.008460536075842476</v>
+      </c>
+      <c r="Q10">
+        <v>0.06089472769600002</v>
+      </c>
+      <c r="R10">
+        <v>0.548052549264</v>
+      </c>
+      <c r="S10">
+        <v>0.0006944854171028136</v>
+      </c>
+      <c r="T10">
+        <v>0.0006944854171028131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1081373333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.324412</v>
+      </c>
+      <c r="I11">
+        <v>0.08208527342443352</v>
+      </c>
+      <c r="J11">
+        <v>0.08208527342443349</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>24.75083866666667</v>
+      </c>
+      <c r="N11">
+        <v>74.252516</v>
+      </c>
+      <c r="O11">
+        <v>0.3718636809063194</v>
+      </c>
+      <c r="P11">
+        <v>0.3718636809063194</v>
+      </c>
+      <c r="Q11">
+        <v>2.676489691176889</v>
+      </c>
+      <c r="R11">
+        <v>24.088407220592</v>
+      </c>
+      <c r="S11">
+        <v>0.03052453192381153</v>
+      </c>
+      <c r="T11">
+        <v>0.03052453192381151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1081373333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.324412</v>
+      </c>
+      <c r="I12">
+        <v>0.08208527342443352</v>
+      </c>
+      <c r="J12">
+        <v>0.08208527342443349</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>41.21176133333334</v>
+      </c>
+      <c r="N12">
+        <v>123.635284</v>
+      </c>
+      <c r="O12">
+        <v>0.6191772922299115</v>
+      </c>
+      <c r="P12">
+        <v>0.6191772922299115</v>
+      </c>
+      <c r="Q12">
+        <v>4.456529972556445</v>
+      </c>
+      <c r="R12">
+        <v>40.108769753008</v>
+      </c>
+      <c r="S12">
+        <v>0.05082533733089266</v>
+      </c>
+      <c r="T12">
+        <v>0.05082533733089264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1081373333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.324412</v>
+      </c>
+      <c r="I13">
+        <v>0.08208527342443352</v>
+      </c>
+      <c r="J13">
+        <v>0.08208527342443349</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.033179</v>
+      </c>
+      <c r="N13">
+        <v>0.099537</v>
+      </c>
+      <c r="O13">
+        <v>0.0004984907879265979</v>
+      </c>
+      <c r="P13">
+        <v>0.0004984907879265979</v>
+      </c>
+      <c r="Q13">
+        <v>0.003587888582666667</v>
+      </c>
+      <c r="R13">
+        <v>0.032290997244</v>
+      </c>
+      <c r="S13">
+        <v>4.091875262651609E-05</v>
+      </c>
+      <c r="T13">
+        <v>4.091875262651607E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.07516</v>
+      </c>
+      <c r="H14">
+        <v>0.22548</v>
+      </c>
+      <c r="I14">
+        <v>0.05705272139051967</v>
+      </c>
+      <c r="J14">
+        <v>0.05705272139051966</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.5631240000000001</v>
+      </c>
+      <c r="N14">
+        <v>1.689372</v>
+      </c>
+      <c r="O14">
+        <v>0.008460536075842478</v>
+      </c>
+      <c r="P14">
+        <v>0.008460536075842476</v>
+      </c>
+      <c r="Q14">
+        <v>0.04232439984000001</v>
+      </c>
+      <c r="R14">
+        <v>0.3809195985600001</v>
+      </c>
+      <c r="S14">
+        <v>0.0004826966075494814</v>
+      </c>
+      <c r="T14">
+        <v>0.0004826966075494813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.07516</v>
+      </c>
+      <c r="H15">
+        <v>0.22548</v>
+      </c>
+      <c r="I15">
+        <v>0.05705272139051967</v>
+      </c>
+      <c r="J15">
+        <v>0.05705272139051966</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>24.75083866666667</v>
+      </c>
+      <c r="N15">
+        <v>74.252516</v>
+      </c>
+      <c r="O15">
+        <v>0.3718636809063194</v>
+      </c>
+      <c r="P15">
+        <v>0.3718636809063194</v>
+      </c>
+      <c r="Q15">
+        <v>1.860273034186667</v>
+      </c>
+      <c r="R15">
+        <v>16.74245730768</v>
+      </c>
+      <c r="S15">
+        <v>0.02121583498200135</v>
+      </c>
+      <c r="T15">
+        <v>0.02121583498200134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.07516</v>
+      </c>
+      <c r="H16">
+        <v>0.22548</v>
+      </c>
+      <c r="I16">
+        <v>0.05705272139051967</v>
+      </c>
+      <c r="J16">
+        <v>0.05705272139051966</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>41.21176133333334</v>
+      </c>
+      <c r="N16">
+        <v>123.635284</v>
+      </c>
+      <c r="O16">
+        <v>0.6191772922299115</v>
+      </c>
+      <c r="P16">
+        <v>0.6191772922299115</v>
+      </c>
+      <c r="Q16">
+        <v>3.097475981813334</v>
+      </c>
+      <c r="R16">
+        <v>27.87728383632</v>
+      </c>
+      <c r="S16">
+        <v>0.03532574954492951</v>
+      </c>
+      <c r="T16">
+        <v>0.03532574954492951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.07516</v>
+      </c>
+      <c r="H17">
+        <v>0.22548</v>
+      </c>
+      <c r="I17">
+        <v>0.05705272139051967</v>
+      </c>
+      <c r="J17">
+        <v>0.05705272139051966</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.033179</v>
+      </c>
+      <c r="N17">
+        <v>0.099537</v>
+      </c>
+      <c r="O17">
+        <v>0.0004984907879265979</v>
+      </c>
+      <c r="P17">
+        <v>0.0004984907879265979</v>
+      </c>
+      <c r="Q17">
+        <v>0.00249373364</v>
+      </c>
+      <c r="R17">
+        <v>0.02244360276</v>
+      </c>
+      <c r="S17">
+        <v>2.844025603931681E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.844025603931681E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.065041</v>
+      </c>
+      <c r="H18">
+        <v>0.195123</v>
+      </c>
+      <c r="I18">
+        <v>0.04937155470943041</v>
+      </c>
+      <c r="J18">
+        <v>0.0493715547094304</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.5631240000000001</v>
+      </c>
+      <c r="N18">
+        <v>1.689372</v>
+      </c>
+      <c r="O18">
+        <v>0.008460536075842478</v>
+      </c>
+      <c r="P18">
+        <v>0.008460536075842476</v>
+      </c>
+      <c r="Q18">
+        <v>0.03662614808400001</v>
+      </c>
+      <c r="R18">
+        <v>0.329635332756</v>
+      </c>
+      <c r="S18">
+        <v>0.0004177098197395665</v>
+      </c>
+      <c r="T18">
+        <v>0.0004177098197395664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.065041</v>
+      </c>
+      <c r="H19">
+        <v>0.195123</v>
+      </c>
+      <c r="I19">
+        <v>0.04937155470943041</v>
+      </c>
+      <c r="J19">
+        <v>0.0493715547094304</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>24.75083866666667</v>
+      </c>
+      <c r="N19">
+        <v>74.252516</v>
+      </c>
+      <c r="O19">
+        <v>0.3718636809063194</v>
+      </c>
+      <c r="P19">
+        <v>0.3718636809063194</v>
+      </c>
+      <c r="Q19">
+        <v>1.609819297718667</v>
+      </c>
+      <c r="R19">
+        <v>14.488373679468</v>
+      </c>
+      <c r="S19">
+        <v>0.01835948806631652</v>
+      </c>
+      <c r="T19">
+        <v>0.01835948806631652</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.065041</v>
+      </c>
+      <c r="H20">
+        <v>0.195123</v>
+      </c>
+      <c r="I20">
+        <v>0.04937155470943041</v>
+      </c>
+      <c r="J20">
+        <v>0.0493715547094304</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>41.21176133333334</v>
+      </c>
+      <c r="N20">
+        <v>123.635284</v>
+      </c>
+      <c r="O20">
+        <v>0.6191772922299115</v>
+      </c>
+      <c r="P20">
+        <v>0.6191772922299115</v>
+      </c>
+      <c r="Q20">
+        <v>2.680454168881333</v>
+      </c>
+      <c r="R20">
+        <v>24.124087519932</v>
+      </c>
+      <c r="S20">
+        <v>0.03056974555816605</v>
+      </c>
+      <c r="T20">
+        <v>0.03056974555816605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.065041</v>
+      </c>
+      <c r="H21">
+        <v>0.195123</v>
+      </c>
+      <c r="I21">
+        <v>0.04937155470943041</v>
+      </c>
+      <c r="J21">
+        <v>0.0493715547094304</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.033179</v>
+      </c>
+      <c r="N21">
+        <v>0.099537</v>
+      </c>
+      <c r="O21">
+        <v>0.0004984907879265979</v>
+      </c>
+      <c r="P21">
+        <v>0.0004984907879265979</v>
+      </c>
+      <c r="Q21">
+        <v>0.002157995339</v>
+      </c>
+      <c r="R21">
+        <v>0.019421958051</v>
+      </c>
+      <c r="S21">
+        <v>2.46112652082651E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.461126520826509E-05</v>
       </c>
     </row>
   </sheetData>
